--- a/proiectrpa/informatii_email.xlsx
+++ b/proiectrpa/informatii_email.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <x:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet 1" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="124519"/>
@@ -67,7 +68,7 @@
     <x:t>14:30-16:30</x:t>
   </x:si>
   <x:si>
-    <x:t>Dacă este posibil, mi-ar plăcea să avem și albume</x:t>
+    <x:t>print album</x:t>
   </x:si>
   <x:si>
     <x:t>nu</x:t>
@@ -94,7 +95,7 @@
     <x:t>14:00-22:00</x:t>
   </x:si>
   <x:si>
-    <x:t>Dacă este posibil, mi-ar plăcea să avem și fotografii în</x:t>
+    <x:t>fotograf suplimentar,filmari</x:t>
   </x:si>
   <x:si>
     <x:t>Mihai Popescu</x:t>
@@ -115,17 +116,20 @@
     <x:t>17:00-01:00</x:t>
   </x:si>
   <x:si>
-    <x:t>Dacă este posibil, mi-ar plăcea să avem și fotografii în aer liber și un album personalizat</x:t>
+    <x:t>filmări</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="2" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -168,6 +172,14 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -214,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +293,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,17 +469,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1"/>
+  <x:dimension ref="A1:I4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A4" sqref="A4 A2 A3 G12"/>
+    <x:sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <x:selection activeCell="H4" sqref="H4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="21.21875" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="24.21875" style="0" customWidth="1"/>
@@ -477,7 +491,7 @@
     <x:col min="8" max="8" width="18.777344" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -506,7 +520,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -535,7 +549,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -564,7 +578,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:9">
+    <x:row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -603,7 +617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -611,7 +625,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -630,7 +644,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,4 +652,140 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/proiectrpa/informatii_email.xlsx
+++ b/proiectrpa/informatii_email.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53BD6E-46B1-4763-A6AE-749C79694D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <x:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Sheet 1" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Sheet 1" sheetId="7" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="124519"/>
@@ -47,6 +48,9 @@
     <x:t>Confirmat</x:t>
   </x:si>
   <x:si>
+    <x:t>PDF</x:t>
+  </x:si>
+  <x:si>
     <x:t>Alex Mihai</x:t>
   </x:si>
   <x:si>
@@ -125,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -184,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,9 +228,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I4"/>
+  <x:dimension ref="A1:J4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <x:selection activeCell="H4" sqref="H4"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="J8" sqref="J8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +495,7 @@
     <x:col min="8" max="8" width="18.777344" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -519,92 +523,104 @@
       <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="J3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -617,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -636,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -655,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -663,9 +679,9 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -694,91 +710,91 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="A4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
